--- a/CMExcel/bin/Debug/test_name2.xlsx
+++ b/CMExcel/bin/Debug/test_name2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,17 +100,13 @@
   </si>
   <si>
     <t>数值C10</t>
-  </si>
-  <si>
-    <t>属性4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,19 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -213,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,24 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,16 +442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,11 +467,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>6</v>
       </c>
@@ -535,11 +484,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>7</v>
       </c>
@@ -555,11 +501,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8</v>
       </c>
@@ -575,11 +518,8 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>9</v>
       </c>
@@ -595,11 +535,8 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>10</v>
       </c>
@@ -613,9 +550,6 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -627,12 +561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
